--- a/mapping/MS_REX.xlsx
+++ b/mapping/MS_REX.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>MS_IRI</t>
   </si>
@@ -28,6 +28,9 @@
     <t>REX_DESC</t>
   </si>
   <si>
+    <t>REX_DEF</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/MS_1000074</t>
   </si>
   <si>
@@ -50,6 +53,9 @@
   </si>
   <si>
     <t>{'label': 'photoionization'}</t>
+  </si>
+  <si>
+    <t>[]</t>
   </si>
 </sst>
 </file>
@@ -420,13 +426,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,39 +445,48 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
